--- a/Tracker/Job Hunting Check list_Sushma.xlsx
+++ b/Tracker/Job Hunting Check list_Sushma.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susyv\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susyv\OneDrive\Documenten\AARD Course\Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900AC4A8-9B7E-447B-96EE-928F84B2DB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5347C1-DCB6-43F5-95C2-20592B40A9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -645,7 +645,7 @@
     <t>Links</t>
   </si>
   <si>
-    <t>https://github.com/Sushma-Vijay?tab=repositories</t>
+    <t>https://github.com/Sushma-Vijay/AARD-Docs/tree/main</t>
   </si>
 </sst>
 </file>
@@ -991,34 +991,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1026,10 +998,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1052,10 +1020,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1078,6 +1042,42 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1308,120 +1308,120 @@
     <col min="1" max="1" width="25.73046875" customWidth="1"/>
     <col min="2" max="2" width="55.3984375" customWidth="1"/>
     <col min="4" max="4" width="25.9296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="20"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="43"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="23"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="46"/>
     </row>
     <row r="3" spans="1:26" ht="13.15">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
     </row>
     <row r="4" spans="1:26" ht="13.15">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1438,302 +1438,302 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="13.15">
-      <c r="A5" s="54"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="34"/>
+      <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="60" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="40" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="25.5">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="60" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="40" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="25.5">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="60" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="40" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="25.5">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="48" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="48"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:26" ht="13.15">
-      <c r="A10" s="54"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
     </row>
     <row r="11" spans="1:26" ht="38.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:26" ht="25.5">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="60" t="s">
+      <c r="D12" s="32"/>
+      <c r="E12" s="40" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.15">
-      <c r="A13" s="54"/>
-      <c r="B13" s="45" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" spans="1:26" ht="25.5">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:26" ht="25.5">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:26" ht="25.5">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" ht="13.15">
-      <c r="A17" s="54"/>
-      <c r="B17" s="45" t="s">
+      <c r="A17" s="34"/>
+      <c r="B17" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5" ht="13.15">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46" t="s">
+      <c r="B24" s="50"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="E24" s="46"/>
+      <c r="E24" s="28"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46" t="s">
+      <c r="B25" s="50"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="E25" s="46"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46" t="s">
+      <c r="B26" s="50"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="E26" s="46"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" spans="1:5" ht="13.15">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="49" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="E28" s="49"/>
+      <c r="E28" s="51"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3"/>
@@ -5649,10 +5649,9 @@
     <mergeCell ref="E28:E32"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" xr:uid="{3BC05131-8F08-490F-9B73-30232CDCD6F0}"/>
-    <hyperlink ref="E7" r:id="rId2" xr:uid="{7FD73427-C869-44E0-9110-D08A3EA3C462}"/>
-    <hyperlink ref="E8" r:id="rId3" xr:uid="{720FAA90-8830-4477-B57A-E19284BDEF28}"/>
-    <hyperlink ref="E12" r:id="rId4" xr:uid="{7CAC45D2-1664-4EBA-B6B3-07C53FCC1FCA}"/>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{B813DA7A-7A7E-4A1D-BE53-F717034B25DC}"/>
+    <hyperlink ref="E7:E8" r:id="rId2" display="https://github.com/Sushma-Vijay/AARD-Docs/tree/main" xr:uid="{7D0067CC-DE6B-40F4-81E5-EFD088009B5C}"/>
+    <hyperlink ref="E12" r:id="rId3" xr:uid="{B3B6A9D5-BB67-438F-AC8B-C84F740B62A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5760,7 +5759,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="12.75">
       <c r="A11" s="4" t="s">
         <v>59</v>
       </c>
@@ -5768,7 +5767,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="12.75">
       <c r="A12" s="4" t="s">
         <v>61</v>
       </c>
@@ -5782,7 +5781,7 @@
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="12.75">
       <c r="A14" s="4" t="s">
         <v>64</v>
       </c>
@@ -5793,7 +5792,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="12.75">
       <c r="A15" s="4" t="s">
         <v>67</v>
       </c>
@@ -5801,11 +5800,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="12.75">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="12.75">
       <c r="A17" s="4" t="s">
         <v>69</v>
       </c>
@@ -5813,7 +5812,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="12.75">
       <c r="A18" s="4" t="s">
         <v>71</v>
       </c>
@@ -5824,7 +5823,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="12.75">
       <c r="A19" s="4" t="s">
         <v>74</v>
       </c>
@@ -5832,7 +5831,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="12.75">
       <c r="A20" s="4" t="s">
         <v>76</v>
       </c>
@@ -5840,7 +5839,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" ht="12.75">
       <c r="A21" s="4" t="s">
         <v>78</v>
       </c>
@@ -5848,7 +5847,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="12.75">
       <c r="A22" s="4" t="s">
         <v>80</v>
       </c>
@@ -5856,7 +5855,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" ht="12.75">
       <c r="A23" s="4" t="s">
         <v>82</v>
       </c>
@@ -5864,16 +5863,16 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" ht="12.75">
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="12.75">
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="12.75">
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" ht="12.75">
       <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:3" ht="12.75">
@@ -8936,91 +8935,91 @@
     <col min="2" max="2" width="55.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="20"/>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="23"/>
+    <row r="1" spans="1:26" ht="12.75">
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="43"/>
+    </row>
+    <row r="2" spans="1:26" ht="12.75">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="46"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -9056,7 +9055,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="25.5">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -9067,7 +9066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="25.5">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -9078,7 +9077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="25.5">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -9089,7 +9088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="25.5">
       <c r="A8" s="3" t="s">
         <v>99</v>
       </c>
@@ -9100,7 +9099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="25.5">
       <c r="A9" s="3" t="s">
         <v>101</v>
       </c>
@@ -9111,7 +9110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="38.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -9122,7 +9121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="25.5">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -9139,49 +9138,49 @@
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="12.75">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="53" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="12.75">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" s="48"/>
       <c r="D14" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="12.75">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="48"/>
       <c r="D15" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="12.75">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="25"/>
+      <c r="B16" s="48"/>
       <c r="D16" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="12.75">
       <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="25"/>
+      <c r="B17" s="48"/>
       <c r="D17" s="4" t="b">
         <v>0</v>
       </c>
@@ -9192,66 +9191,66 @@
       </c>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" ht="12.75">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="53" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="12.75">
       <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="25"/>
+      <c r="B20" s="48"/>
       <c r="D20" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="12.75">
       <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="48"/>
       <c r="D21" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="12.75">
       <c r="A22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="25"/>
+      <c r="B22" s="48"/>
       <c r="D22" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="12.75">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="25"/>
+      <c r="B23" s="48"/>
       <c r="D23" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="12.75">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" ht="12.75">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" ht="12.75">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" ht="12.75">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
     </row>
@@ -13204,7 +13203,7 @@
       <c r="Y1" s="14"/>
       <c r="Z1" s="14"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="12.75">
       <c r="A2" s="4" t="s">
         <v>106</v>
       </c>
@@ -13215,7 +13214,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="12.75">
       <c r="A3" s="4" t="s">
         <v>109</v>
       </c>
@@ -13226,7 +13225,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="12.75">
       <c r="A4" s="4" t="s">
         <v>112</v>
       </c>
@@ -13237,7 +13236,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="12.75">
       <c r="A5" s="4" t="s">
         <v>115</v>
       </c>
@@ -13248,7 +13247,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="12.75">
       <c r="A6" s="4" t="s">
         <v>118</v>
       </c>
@@ -13259,7 +13258,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="12.75">
       <c r="A7" s="4" t="s">
         <v>121</v>
       </c>
@@ -13270,7 +13269,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="12.75">
       <c r="A8" s="4" t="s">
         <v>124</v>
       </c>
@@ -13281,7 +13280,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="12.75">
       <c r="A9" s="4" t="s">
         <v>127</v>
       </c>
@@ -13292,7 +13291,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="12.75">
       <c r="A10" s="4" t="s">
         <v>130</v>
       </c>
@@ -13303,7 +13302,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="12.75">
       <c r="A11" s="4" t="s">
         <v>133</v>
       </c>
@@ -13314,7 +13313,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="12.75">
       <c r="A12" s="4" t="s">
         <v>136</v>
       </c>
@@ -13325,7 +13324,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="12.75">
       <c r="A13" s="4" t="s">
         <v>139</v>
       </c>
@@ -13336,7 +13335,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="12.75">
       <c r="A14" s="4" t="s">
         <v>142</v>
       </c>
@@ -13347,7 +13346,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="12.75">
       <c r="A15" s="4" t="s">
         <v>145</v>
       </c>
@@ -13380,13 +13379,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -13410,13 +13409,13 @@
       <c r="Z1" s="14"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="15" t="s">
@@ -13435,7 +13434,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="12.75">
       <c r="A4" s="4" t="s">
         <v>155</v>
       </c>
@@ -13449,7 +13448,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="38.25">
       <c r="A5" s="4" t="s">
         <v>158</v>
       </c>
@@ -13463,7 +13462,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="12.75">
       <c r="A6" s="4" t="s">
         <v>161</v>
       </c>
@@ -13480,7 +13479,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="12.75">
       <c r="A7" s="4" t="s">
         <v>164</v>
       </c>
@@ -13497,7 +13496,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="12.75">
       <c r="A8" s="4" t="s">
         <v>168</v>
       </c>
@@ -13514,7 +13513,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="12.75">
       <c r="A9" s="4" t="s">
         <v>171</v>
       </c>
@@ -13532,24 +13531,24 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+    </row>
+    <row r="12" spans="1:26" ht="12.75">
       <c r="A12" s="4" t="s">
         <v>176</v>
       </c>
@@ -13566,7 +13565,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="12.75">
       <c r="A13" s="4" t="s">
         <v>180</v>
       </c>
@@ -13580,7 +13579,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="25.5">
       <c r="A14" s="4" t="s">
         <v>182</v>
       </c>
@@ -13594,26 +13593,26 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="12.75">
       <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="15" t="s">
@@ -13632,7 +13631,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="12.75">
       <c r="A19" s="4" t="s">
         <v>155</v>
       </c>
@@ -13646,7 +13645,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="12.75">
       <c r="A20" s="4" t="s">
         <v>161</v>
       </c>
@@ -13663,7 +13662,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="12.75">
       <c r="A21" s="4" t="s">
         <v>164</v>
       </c>
@@ -13680,7 +13679,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="12.75">
       <c r="A22" s="4" t="s">
         <v>171</v>
       </c>
@@ -13697,7 +13696,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="12.75">
       <c r="A23" s="4" t="s">
         <v>180</v>
       </c>
@@ -13711,7 +13710,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="25.5">
       <c r="A24" s="4" t="s">
         <v>182</v>
       </c>
@@ -13726,24 +13725,24 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+    </row>
+    <row r="27" spans="1:5" ht="12.75">
       <c r="A27" s="4" t="s">
         <v>190</v>
       </c>
@@ -16718,93 +16717,93 @@
     <col min="2" max="2" width="55.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:26" ht="12.75">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="20"/>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="23"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="43"/>
+    </row>
+    <row r="2" spans="1:26" ht="12.75">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="46"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -16817,14 +16816,14 @@
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="28"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="60"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -16849,7 +16848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="25.5">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -16860,7 +16859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="25.5">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -16871,7 +16870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="25.5">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -16891,7 +16890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="38.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -16902,7 +16901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="25.5">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -16922,7 +16921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="25.5">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -16933,7 +16932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="25.5">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -16944,7 +16943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="25.5">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -16964,7 +16963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="12.75">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>23</v>
@@ -16973,7 +16972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" ht="12.75">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="D18" s="4" t="b">
@@ -16986,49 +16985,49 @@
       </c>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="12.75">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="53" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="12.75">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="48"/>
       <c r="D21" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="12.75">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="25"/>
+      <c r="B22" s="48"/>
       <c r="D22" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="12.75">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="25"/>
+      <c r="B23" s="48"/>
       <c r="D23" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="12.75">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="25"/>
+      <c r="B24" s="48"/>
       <c r="D24" s="4" t="b">
         <v>0</v>
       </c>
@@ -17039,22 +17038,22 @@
       </c>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" ht="12.75">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="53" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" ht="12.75">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="25"/>
+      <c r="B27" s="48"/>
       <c r="D27" s="4" t="b">
         <v>0</v>
       </c>
@@ -17063,7 +17062,7 @@
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="25"/>
+      <c r="B28" s="48"/>
       <c r="D28" s="4" t="b">
         <v>0</v>
       </c>
@@ -17072,7 +17071,7 @@
       <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="25"/>
+      <c r="B29" s="48"/>
       <c r="D29" s="4" t="b">
         <v>0</v>
       </c>
@@ -17081,7 +17080,7 @@
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="25"/>
+      <c r="B30" s="48"/>
       <c r="D30" s="4" t="b">
         <v>0</v>
       </c>
